--- a/imports/SOP.xlsx
+++ b/imports/SOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879FC5D-8C67-4924-A0EF-0494C258CE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BD9365-ACC5-4A1F-8AA6-198B3545D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="130">
   <si>
     <t>BD</t>
   </si>
@@ -196,9 +196,6 @@
     <t>nivel</t>
   </si>
   <si>
-    <t>KT-BS-001-P</t>
-  </si>
-  <si>
     <t>RE-SA-001</t>
   </si>
   <si>
@@ -211,24 +208,6 @@
     <t>BASURA</t>
   </si>
   <si>
-    <t>BASAURA</t>
-  </si>
-  <si>
-    <t>ES-SP-001-P</t>
-  </si>
-  <si>
-    <t>BANO</t>
-  </si>
-  <si>
-    <t>OF-001</t>
-  </si>
-  <si>
-    <t>SALA JUNTAS</t>
-  </si>
-  <si>
-    <t>OF-002</t>
-  </si>
-  <si>
     <t>BARRER</t>
   </si>
   <si>
@@ -310,9 +289,6 @@
     <t>SD-AD-DI-BA-001-VI-001-P</t>
   </si>
   <si>
-    <t>ES-VI-001-P</t>
-  </si>
-  <si>
     <t>SD-AD-DI-BA-001-BA-001-B</t>
   </si>
   <si>
@@ -334,18 +310,6 @@
     <t>SD-AD-DI-BA-001-TL-001-P</t>
   </si>
   <si>
-    <t>BANOS</t>
-  </si>
-  <si>
-    <t>ES-TL-001-B</t>
-  </si>
-  <si>
-    <t>ES-TL-001-M</t>
-  </si>
-  <si>
-    <t>ES-TL-001-P</t>
-  </si>
-  <si>
     <t>SD-AD-DI-BA-001-TR-001-B</t>
   </si>
   <si>
@@ -374,6 +338,96 @@
   </si>
   <si>
     <t>SP-AD-DI-BA-001-SP-001-P</t>
+  </si>
+  <si>
+    <t>Oficina 001</t>
+  </si>
+  <si>
+    <t>Bano 001</t>
+  </si>
+  <si>
+    <t>Sala Juntas 001</t>
+  </si>
+  <si>
+    <t>Oficina 002</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>GLOSARIO</t>
+  </si>
+  <si>
+    <t>Fraccion</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>SACUDIR</t>
+  </si>
+  <si>
+    <t>TALLAR</t>
+  </si>
+  <si>
+    <t>TRASTES</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Senaletica</t>
+  </si>
+  <si>
+    <t>Basura</t>
+  </si>
+  <si>
+    <t>Superficies</t>
+  </si>
+  <si>
+    <t>Vidrios</t>
+  </si>
+  <si>
+    <t>Barrer</t>
+  </si>
+  <si>
+    <t>Tallar</t>
+  </si>
+  <si>
+    <t>Trapear</t>
+  </si>
+  <si>
+    <t>Consumibles</t>
+  </si>
+  <si>
+    <t>nivel_limpieza</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Profunda</t>
+  </si>
+  <si>
+    <t>KT-BS-001</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-SP-001-P</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-VI-001-P</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-TL-001-B</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-TL-001-M</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-BA-001-TL-001-P</t>
   </si>
 </sst>
 </file>
@@ -383,7 +437,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,21 +460,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,8 +509,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -516,11 +568,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -541,9 +632,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -556,7 +644,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,17 +665,66 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D9184C-A933-4A6B-AF3A-5224922105C9}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -931,27 +1067,29 @@
     <col min="1" max="1" width="14.46484375" customWidth="1"/>
     <col min="2" max="2" width="13.796875" customWidth="1"/>
     <col min="3" max="3" width="21.06640625" customWidth="1"/>
-    <col min="9" max="9" width="11.9296875" customWidth="1"/>
+    <col min="4" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="10" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="8" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -976,9 +1114,14 @@
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1003,11 +1146,14 @@
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1032,11 +1178,14 @@
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1061,11 +1210,14 @@
       <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1090,77 +1242,86 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1169,7 +1330,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1178,7 +1339,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1187,7 +1348,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1221,9 +1382,10 @@
     <row r="31" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1231,40 +1393,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEED920-DDC5-42D7-AECD-899C3ABF7BAE}">
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="O1" sqref="N1:O12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.59765625" customWidth="1"/>
     <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.86328125" customWidth="1"/>
+    <col min="14" max="14" width="13.265625" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="8" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="P1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1298,17 +1470,31 @@
       <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1329,14 +1515,28 @@
         <v>16</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1370,9 +1570,23 @@
       <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1406,17 +1620,31 @@
       <c r="K5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D6" s="4">
         <v>4</v>
@@ -1437,23 +1665,36 @@
         <v>16</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -1479,17 +1720,31 @@
       <c r="K7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4">
         <v>6</v>
@@ -1510,22 +1765,36 @@
         <v>16</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4">
         <v>7</v>
@@ -1546,22 +1815,36 @@
         <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D10" s="4">
         <v>8</v>
@@ -1582,40 +1865,66 @@
         <v>16</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="7"/>
+      <c r="L10" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="P11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="P12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="1048576" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K1048576" s="4" t="s">
@@ -1623,10 +1932,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="Q3:Q8 Q10">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1634,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E722A55D-705A-497B-B653-AFE46F787C89}">
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1645,37 +1966,42 @@
     <col min="1" max="1" width="25.46484375" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="5" width="11.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" customWidth="1"/>
+    <col min="6" max="6" width="22.73046875" customWidth="1"/>
     <col min="7" max="8" width="11.3984375" customWidth="1"/>
-    <col min="17" max="17" width="13.06640625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="8" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+    </row>
+    <row r="2" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1724,20 +2050,31 @@
       <c r="P2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1761,7 +2098,7 @@
         <v>16</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>16</v>
@@ -1769,22 +2106,31 @@
       <c r="P3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1808,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>16</v>
@@ -1816,22 +2162,31 @@
       <c r="P4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1855,7 +2210,7 @@
         <v>16</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>16</v>
@@ -1863,11 +2218,20 @@
       <c r="P5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -1908,11 +2272,20 @@
       <c r="P6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -1923,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
@@ -1953,11 +2326,20 @@
       <c r="P7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
@@ -1968,14 +2350,14 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="4">
         <v>5</v>
@@ -2004,13 +2386,22 @@
       <c r="P8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>33</v>
@@ -2018,10 +2409,10 @@
       <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4">
@@ -2051,24 +2442,33 @@
       <c r="P9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>90</v>
+      <c r="F10" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
@@ -2090,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>16</v>
@@ -2098,22 +2498,31 @@
       <c r="P10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q10" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2145,22 +2554,31 @@
       <c r="P11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2192,22 +2610,31 @@
       <c r="P12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2239,16 +2666,25 @@
       <c r="P13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -2256,7 +2692,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="4">
@@ -2278,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>16</v>
@@ -2286,16 +2722,25 @@
       <c r="P14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -2303,7 +2748,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="4">
@@ -2325,7 +2770,7 @@
         <v>16</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>16</v>
@@ -2333,16 +2778,25 @@
       <c r="P15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -2350,7 +2804,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="4">
@@ -2372,7 +2826,7 @@
         <v>16</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>16</v>
@@ -2380,29 +2834,38 @@
       <c r="P16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>105</v>
+      <c r="D17" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H17" s="4">
         <v>10</v>
@@ -2423,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>16</v>
@@ -2431,29 +2894,38 @@
       <c r="P17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>105</v>
+      <c r="D18" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H18" s="4">
         <v>12</v>
@@ -2474,7 +2946,7 @@
         <v>16</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>16</v>
@@ -2482,29 +2954,38 @@
       <c r="P18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>105</v>
+      <c r="D19" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H19" s="4">
         <v>15</v>
@@ -2525,7 +3006,7 @@
         <v>16</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>16</v>
@@ -2533,16 +3014,25 @@
       <c r="P19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T19" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -2570,7 +3060,7 @@
         <v>16</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>16</v>
@@ -2578,16 +3068,25 @@
       <c r="P20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q20" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -2615,7 +3114,7 @@
         <v>16</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>16</v>
@@ -2623,16 +3122,25 @@
       <c r="P21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q21" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T21" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
@@ -2660,7 +3168,7 @@
         <v>16</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>16</v>
@@ -2668,32 +3176,44 @@
       <c r="P22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q22" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="T23" s="20"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
     </row>
     <row r="1048576" spans="15:15" x14ac:dyDescent="0.45">
@@ -2702,11 +3222,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A3:A22">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/imports/SOP.xlsx
+++ b/imports/SOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BD9365-ACC5-4A1F-8AA6-198B3545D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4137851-8582-4BCB-8FEA-BD81C2780772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="161">
   <si>
     <t>BD</t>
   </si>
@@ -428,6 +428,99 @@
   </si>
   <si>
     <t>ES-AD-DI-BA-001-TL-001-P</t>
+  </si>
+  <si>
+    <t>SF-AD-DI-OF-001-SE-001</t>
+  </si>
+  <si>
+    <t>SF-AD-DI-OF-001-BS-001</t>
+  </si>
+  <si>
+    <t>SF-AD-DI-OF-001-SP-001</t>
+  </si>
+  <si>
+    <t>SF-AD-DI-OF-001-VI-001</t>
+  </si>
+  <si>
+    <t>FR-SA-001</t>
+  </si>
+  <si>
+    <t>SF-AD-DI-OF-001-SA-001</t>
+  </si>
+  <si>
+    <t>SF-AD-DI-OF-001-BA-001</t>
+  </si>
+  <si>
+    <t>SF-AD-DI-OF-001-TR-001</t>
+  </si>
+  <si>
+    <t>Sacudir</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-SE-001-B</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-SE-001-M</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-SE-001-P</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-BS-001-B</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-BS-001-M</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-BS-001-P</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-SP-001-P</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-VI-001-P</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-SA-001-B</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-SA-001-M</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-SA-001-P</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-BA-001-B</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-BA-001-M</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-BA-001-P</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-TR-001-B</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-TR-001-P</t>
+  </si>
+  <si>
+    <t>SD-AD-DI-OF-001-TR-001-M</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-SP-001-P</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-VI-001-P</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-SA-001-B</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-SA-001-M</t>
+  </si>
+  <si>
+    <t>ES-AD-DI-OF-001-SA-001-P</t>
   </si>
 </sst>
 </file>
@@ -611,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -647,6 +740,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,29 +764,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,20 +785,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1059,7 +1152,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1072,22 +1165,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="24" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="25"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1146,7 +1239,7 @@
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -1178,7 +1271,7 @@
       <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -1210,7 +1303,7 @@
       <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1242,7 +1335,7 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -1250,76 +1343,72 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
@@ -1395,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEED920-DDC5-42D7-AECD-899C3ABF7BAE}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A3" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1411,26 +1500,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
       <c r="P1" s="26" t="s">
         <v>105</v>
       </c>
@@ -1479,10 +1568,10 @@
       <c r="N2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="14" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1520,7 +1609,7 @@
       <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -1529,10 +1618,10 @@
       <c r="N3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1570,7 +1659,7 @@
       <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M4" s="9" t="s">
@@ -1582,7 +1671,7 @@
       <c r="P4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1620,7 +1709,7 @@
       <c r="K5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M5" s="9" t="s">
@@ -1629,10 +1718,10 @@
       <c r="N5" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1670,7 +1759,7 @@
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M6" s="9" t="s">
@@ -1679,10 +1768,10 @@
       <c r="N6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1720,7 +1809,7 @@
       <c r="K7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M7" s="9" t="s">
@@ -1729,10 +1818,10 @@
       <c r="N7" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1770,7 +1859,7 @@
       <c r="K8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M8" s="9" t="s">
@@ -1779,10 +1868,10 @@
       <c r="N8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1820,7 +1909,7 @@
       <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M9" s="9" t="s">
@@ -1829,7 +1918,7 @@
       <c r="N9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="15" t="s">
         <v>54</v>
       </c>
       <c r="Q9" s="11" t="s">
@@ -1870,7 +1959,7 @@
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="4" t="s">
         <v>104</v>
       </c>
       <c r="M10" s="9" t="s">
@@ -1882,54 +1971,339 @@
       <c r="P10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="P11" s="29" t="s">
+      <c r="A11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="P12" s="29" t="s">
+      <c r="A12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="15" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="13" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048576" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K1048576" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="K1048576" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1940,13 +2314,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="Q3:Q8 Q10">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1957,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E722A55D-705A-497B-B653-AFE46F787C89}">
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="78" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1974,32 +2348,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="10"/>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -2106,7 +2480,7 @@
       <c r="P3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R3" s="9" t="s">
@@ -2162,7 +2536,7 @@
       <c r="P4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R4" s="9" t="s">
@@ -2171,7 +2545,7 @@
       <c r="S4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2218,7 +2592,7 @@
       <c r="P5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R5" s="9" t="s">
@@ -2227,7 +2601,7 @@
       <c r="S5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2272,7 +2646,7 @@
       <c r="P6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R6" s="9" t="s">
@@ -2326,7 +2700,7 @@
       <c r="P7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R7" s="9" t="s">
@@ -2335,7 +2709,7 @@
       <c r="S7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="T7" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2386,7 +2760,7 @@
       <c r="P8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="Q8" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R8" s="9" t="s">
@@ -2395,7 +2769,7 @@
       <c r="S8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2442,7 +2816,7 @@
       <c r="P9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="Q9" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R9" s="9" t="s">
@@ -2451,7 +2825,7 @@
       <c r="S9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2498,7 +2872,7 @@
       <c r="P10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R10" s="9" t="s">
@@ -2507,7 +2881,7 @@
       <c r="S10" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="22" t="s">
+      <c r="T10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2554,7 +2928,7 @@
       <c r="P11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="16" t="s">
         <v>104</v>
       </c>
       <c r="R11" s="9" t="s">
@@ -2610,7 +2984,7 @@
       <c r="P12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="Q12" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R12" s="9" t="s">
@@ -2619,7 +2993,7 @@
       <c r="S12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="T12" s="22" t="s">
+      <c r="T12" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2666,7 +3040,7 @@
       <c r="P13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="22" t="s">
+      <c r="Q13" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R13" s="9" t="s">
@@ -2675,7 +3049,7 @@
       <c r="S13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="T13" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2722,7 +3096,7 @@
       <c r="P14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="22" t="s">
+      <c r="Q14" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R14" s="9" t="s">
@@ -2778,7 +3152,7 @@
       <c r="P15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R15" s="9" t="s">
@@ -2787,7 +3161,7 @@
       <c r="S15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="22" t="s">
+      <c r="T15" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2834,7 +3208,7 @@
       <c r="P16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="Q16" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R16" s="9" t="s">
@@ -2843,7 +3217,7 @@
       <c r="S16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="T16" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2894,7 +3268,7 @@
       <c r="P17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="22" t="s">
+      <c r="Q17" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R17" s="9" t="s">
@@ -2954,7 +3328,7 @@
       <c r="P18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="22" t="s">
+      <c r="Q18" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R18" s="9" t="s">
@@ -2963,7 +3337,7 @@
       <c r="S18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3014,7 +3388,7 @@
       <c r="P19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="22" t="s">
+      <c r="Q19" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R19" s="9" t="s">
@@ -3023,7 +3397,7 @@
       <c r="S19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3068,7 +3442,7 @@
       <c r="P20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="22" t="s">
+      <c r="Q20" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R20" s="9" t="s">
@@ -3122,7 +3496,7 @@
       <c r="P21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="Q21" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R21" s="9" t="s">
@@ -3131,7 +3505,7 @@
       <c r="S21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="T21" s="22" t="s">
+      <c r="T21" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3176,7 +3550,7 @@
       <c r="P22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="Q22" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R22" s="9" t="s">
@@ -3185,37 +3559,991 @@
       <c r="S22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="T22" s="22" t="s">
+      <c r="T22" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="T23" s="20"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B32" s="3"/>
-    </row>
+    <row r="23" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="4">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="4">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="4">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="4">
+        <v>15</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="4">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="4">
+        <v>3</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="4">
+        <v>4</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="4">
+        <v>5</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="4">
+        <v>10</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="4">
+        <v>12</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="4">
+        <v>3</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="4">
+        <v>15</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048576" spans="15:15" x14ac:dyDescent="0.45">
       <c r="O1048576" s="4" t="s">
         <v>16</v>
@@ -3228,7 +4556,10 @@
     <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A22">
+  <conditionalFormatting sqref="A3:A25">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A29 A40:A63">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/SOP.xlsx
+++ b/imports/SOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4137851-8582-4BCB-8FEA-BD81C2780772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB2543-A73B-4B58-B996-83C5B5CC4C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -2331,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E722A55D-705A-497B-B653-AFE46F787C89}">
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="78" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="78" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/imports/SOP.xlsx
+++ b/imports/SOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB2543-A73B-4B58-B996-83C5B5CC4C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44BB4E-0291-4343-86D9-845C03181073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{B8AE8316-DE00-4F18-9EBC-F49DAD0CC8B9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="162">
   <si>
     <t>BD</t>
   </si>
@@ -418,9 +418,6 @@
     <t>ES-AD-DI-BA-001-SP-001-P</t>
   </si>
   <si>
-    <t>ES-AD-DI-BA-001-VI-001-P</t>
-  </si>
-  <si>
     <t>ES-AD-DI-BA-001-TL-001-B</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>ES-AD-DI-OF-001-SP-001-P</t>
   </si>
   <si>
-    <t>ES-AD-DI-OF-001-VI-001-P</t>
-  </si>
-  <si>
     <t>ES-AD-DI-OF-001-SA-001-B</t>
   </si>
   <si>
@@ -521,6 +515,15 @@
   </si>
   <si>
     <t>ES-AD-DI-OF-001-SA-001-P</t>
+  </si>
+  <si>
+    <t>KT-VI-001</t>
+  </si>
+  <si>
+    <t>RE-VI-001</t>
+  </si>
+  <si>
+    <t>CM-DS-002</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1155,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1484,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEED920-DDC5-42D7-AECD-899C3ABF7BAE}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="96" workbookViewId="0">
+    <sheetView zoomScale="96" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="11" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>17</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="12" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
@@ -2077,7 +2080,7 @@
     </row>
     <row r="13" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
@@ -2121,7 +2124,7 @@
     </row>
     <row r="14" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -2165,13 +2168,13 @@
     </row>
     <row r="15" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
@@ -2204,12 +2207,12 @@
         <v>100</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -2253,7 +2256,7 @@
     </row>
     <row r="17" spans="1:14" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -2331,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E722A55D-705A-497B-B653-AFE46F787C89}">
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="78" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2839,12 +2842,16 @@
       <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="H10" s="4">
         <v>10</v>
       </c>
@@ -3066,7 +3073,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="4">
@@ -3122,7 +3129,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="4">
@@ -3178,7 +3185,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="4">
@@ -3565,10 +3572,10 @@
     </row>
     <row r="23" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -3621,10 +3628,10 @@
     </row>
     <row r="24" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
@@ -3677,10 +3684,10 @@
     </row>
     <row r="25" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
@@ -3733,10 +3740,10 @@
     </row>
     <row r="26" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -3787,10 +3794,10 @@
     </row>
     <row r="27" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
@@ -3841,10 +3848,10 @@
     </row>
     <row r="28" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4">
         <v>3</v>
@@ -3901,10 +3908,10 @@
     </row>
     <row r="29" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -3912,7 +3919,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="4">
@@ -3957,20 +3964,24 @@
     </row>
     <row r="30" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="4">
         <v>3</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="7"/>
+      <c r="D30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="H30" s="4">
         <v>10</v>
       </c>
@@ -4013,10 +4024,10 @@
     </row>
     <row r="31" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -4024,7 +4035,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="4">
@@ -4061,7 +4072,7 @@
         <v>100</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T31" s="9" t="s">
         <v>121</v>
@@ -4069,10 +4080,10 @@
     </row>
     <row r="32" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -4080,7 +4091,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="4">
@@ -4117,7 +4128,7 @@
         <v>100</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>122</v>
@@ -4125,10 +4136,10 @@
     </row>
     <row r="33" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
@@ -4136,7 +4147,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="4">
@@ -4173,7 +4184,7 @@
         <v>100</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>123</v>
@@ -4181,10 +4192,10 @@
     </row>
     <row r="34" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -4237,10 +4248,10 @@
     </row>
     <row r="35" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
@@ -4293,10 +4304,10 @@
     </row>
     <row r="36" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
@@ -4349,10 +4360,10 @@
     </row>
     <row r="37" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -4409,10 +4420,10 @@
     </row>
     <row r="38" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -4469,10 +4480,10 @@
     </row>
     <row r="39" spans="1:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
